--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4248332.08495624</v>
+        <v>4248332.084956241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>819112.2248454074</v>
+        <v>477858.4348113498</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>682213.8818051493</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3957641203958519</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>49.07921205018596</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73099408452359</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.35153719005459</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>159.5623709710786</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.1662867997879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X7" t="n">
-        <v>10.85592131146012</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>124.8310505726241</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481181</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>50.9055910501239</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229337</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>111.6943500844841</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853705</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491437</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>87.87673964201105</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>15.98360398438625</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>93.87916681139886</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5.1077313359454</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>135.8803936258645</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>64.32381826160454</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>123.6066176910518</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>231.0382379337316</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>161.4046520073172</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2318,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206794</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V25" t="n">
-        <v>121.0738855299387</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>140.0680651027565</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701319</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>74.18424749821776</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3013,7 +3013,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593971</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224541</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692909</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329096</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898727</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857179</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.3020725169286</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329068</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373703</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789556</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463091</v>
+        <v>42.28735533462909</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415223</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3964,7 +3964,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224548</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>96.84207451769328</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>115.5210219882804</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.506281012309</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.506281012309</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.506281012309</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="3">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>301.7863312341319</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>402.0066065949742</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>402.0066065949742</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.606446659096</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.0980231475335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>687.7464879777732</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>687.7464879777732</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.927233509</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.927233509</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1317.927233509</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>932.1389809107561</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>925.1934801615527</v>
+        <v>952.5674858910852</v>
       </c>
       <c r="G8" t="n">
-        <v>507.2296720597395</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>180.0349520957424</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2590.700612609195</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2372.065945581257</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573122</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571344</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.4038777286579</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>471.4038777286579</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>471.4038777286579</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>471.4038777286579</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>324.5139302307475</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>324.5139302307475</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>166.7655576632777</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942394</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124021</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286579</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.4038777286579</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>207.4238825943897</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>618.3141514389024</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>1232.211221195791</v>
       </c>
       <c r="M12" t="n">
-        <v>1479.482307609636</v>
+        <v>1552.546540725493</v>
       </c>
       <c r="N12" t="n">
-        <v>1479.482307609636</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.946068912295</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P12" t="n">
-        <v>2353.968549694505</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="14">
@@ -5261,7 +5261,7 @@
         <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,13 +5294,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126481</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>263.5382936126481</v>
+        <v>1189.663494389109</v>
       </c>
       <c r="M15" t="n">
-        <v>1031.90644000511</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N15" t="n">
-        <v>1659.000326757765</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O15" t="n">
-        <v>2328.464088060424</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1050.668234180871</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>761.5395953944297</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>506.8551071885429</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>506.8551071885429</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="17">
@@ -5540,13 +5540,13 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>2475.391554694651</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>2600.749114752489</v>
+        <v>388.8958536704855</v>
       </c>
       <c r="L18" t="n">
-        <v>2600.749114752489</v>
+        <v>618.8589595388346</v>
       </c>
       <c r="M18" t="n">
-        <v>3369.11726114495</v>
+        <v>939.1942790685364</v>
       </c>
       <c r="N18" t="n">
-        <v>3713.637916782568</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O18" t="n">
-        <v>4383.101678085227</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.7235151749151</v>
+        <v>441.9005583181183</v>
       </c>
       <c r="C19" t="n">
-        <v>563.7235151749151</v>
+        <v>441.9005583181183</v>
       </c>
       <c r="D19" t="n">
-        <v>563.7235151749151</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028583</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909233</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1039.200582524332</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="V19" t="n">
-        <v>784.5160943184452</v>
+        <v>731.3177283550789</v>
       </c>
       <c r="W19" t="n">
-        <v>784.5160943184452</v>
+        <v>441.9005583181183</v>
       </c>
       <c r="X19" t="n">
-        <v>784.5160943184452</v>
+        <v>441.9005583181183</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.7235151749151</v>
+        <v>441.9005583181183</v>
       </c>
     </row>
     <row r="20">
@@ -5747,46 +5747,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>2745.388427942954</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>2745.388427942954</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M21" t="n">
-        <v>3513.756574335415</v>
+        <v>1735.190018338844</v>
       </c>
       <c r="N21" t="n">
-        <v>4318.168152599565</v>
+        <v>2079.710673976462</v>
       </c>
       <c r="O21" t="n">
-        <v>4791.460014500963</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P21" t="n">
-        <v>4791.460014500963</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>4627.482615505472</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W22" t="n">
-        <v>4338.065445468512</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X22" t="n">
-        <v>4110.075894570495</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>3889.283315426964</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550599</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610187</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5975,64 +5975,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465297</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121727</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851612</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614721</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>2414.794352419529</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>3028.691422176418</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M24" t="n">
-        <v>3797.059568568879</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N24" t="n">
-        <v>4601.47114683303</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O24" t="n">
-        <v>4850.224560916992</v>
+        <v>2337.112659897353</v>
       </c>
       <c r="P24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3889.283315426964</v>
+        <v>244.107038958196</v>
       </c>
       <c r="C25" t="n">
-        <v>3889.283315426964</v>
+        <v>244.107038958196</v>
       </c>
       <c r="D25" t="n">
-        <v>3889.283315426964</v>
+        <v>244.107038958196</v>
       </c>
       <c r="E25" t="n">
-        <v>3889.283315426964</v>
+        <v>244.107038958196</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>4749.779469576118</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="U25" t="n">
-        <v>4749.779469576118</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V25" t="n">
-        <v>4627.482615505472</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="W25" t="n">
-        <v>4338.065445468512</v>
+        <v>385.5899330013844</v>
       </c>
       <c r="X25" t="n">
-        <v>4110.075894570495</v>
+        <v>385.5899330013844</v>
       </c>
       <c r="Y25" t="n">
-        <v>3889.283315426964</v>
+        <v>244.107038958196</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,67 +6209,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J27" t="n">
-        <v>2413.228956386554</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>2538.586516444392</v>
+        <v>674.4285624571606</v>
       </c>
       <c r="L27" t="n">
-        <v>2538.586516444392</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>3306.954662836853</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="N27" t="n">
-        <v>4111.366241101004</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O27" t="n">
-        <v>4780.830002403663</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P27" t="n">
-        <v>4780.830002403663</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4166.003522936599</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C28" t="n">
-        <v>3997.067340008692</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D28" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094765</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4637.069157803799</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4347.651987766838</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4347.651987766838</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y28" t="n">
-        <v>4347.651987766838</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6461,7 +6461,7 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514081</v>
@@ -6470,7 +6470,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>138.7081686256434</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>385.4732965321074</v>
+        <v>618.8589595388347</v>
       </c>
       <c r="M30" t="n">
-        <v>705.8086160618093</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N30" t="n">
-        <v>1510.22019432596</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2401.211522871573</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2401.211522871573</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.793971740469</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.677879852603</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.381331480308</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>3221.288328937956</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>3143.218472480087</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
-        <v>3043.863241839948</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
-        <v>2962.265324427933</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
-        <v>2919.550824089921</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>2999.384087782175</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>3217.020063255131</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>3532.182679494605</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
-        <v>3871.199993490131</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
-        <v>4209.194673746023</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>4510.520222979764</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>4754.570558813791</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>4818.599560616158</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>4687.499641571751</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>4532.534317401299</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>4312.225769654898</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>4126.361372489052</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>3905.764293492133</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>3746.594833634157</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y31" t="n">
-        <v>3594.622345530668</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6677,10 +6677,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>550.6618826216031</v>
       </c>
       <c r="L33" t="n">
-        <v>784.1783943330314</v>
+        <v>550.6618826216031</v>
       </c>
       <c r="M33" t="n">
-        <v>1552.546540725493</v>
+        <v>1319.030029014064</v>
       </c>
       <c r="N33" t="n">
-        <v>1897.067196363111</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="O33" t="n">
-        <v>2145.820610447073</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6835,34 +6835,34 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,16 +6889,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010318</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,31 +6953,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L36" t="n">
-        <v>698.9859206278418</v>
+        <v>738.0704661731476</v>
       </c>
       <c r="M36" t="n">
-        <v>1019.321240157544</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N36" t="n">
-        <v>1823.732818421694</v>
+        <v>1402.926441340467</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>2072.390202643126</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7072,25 +7072,25 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>530.005181897948</v>
       </c>
       <c r="L39" t="n">
-        <v>1002.792923427374</v>
+        <v>759.9682877662972</v>
       </c>
       <c r="M39" t="n">
-        <v>1323.128242957076</v>
+        <v>1080.303607295999</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.990870621109</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3481.793971740469</v>
+        <v>659.4602391108313</v>
       </c>
       <c r="C40" t="n">
-        <v>3381.677879852603</v>
+        <v>559.3441472229654</v>
       </c>
       <c r="D40" t="n">
-        <v>3300.381331480309</v>
+        <v>478.0475988506706</v>
       </c>
       <c r="E40" t="n">
-        <v>3221.288328937957</v>
+        <v>398.9545963083185</v>
       </c>
       <c r="F40" t="n">
-        <v>3143.218472480087</v>
+        <v>320.8847398504491</v>
       </c>
       <c r="G40" t="n">
-        <v>3043.863241839949</v>
+        <v>221.5295092103107</v>
       </c>
       <c r="H40" t="n">
-        <v>2962.265324427933</v>
+        <v>139.931591798295</v>
       </c>
       <c r="I40" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>2999.384087782176</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>3217.020063255132</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>3532.182679494606</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P40" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R40" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V40" t="n">
-        <v>4126.361372489053</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W40" t="n">
-        <v>3905.764293492133</v>
+        <v>1083.430560862495</v>
       </c>
       <c r="X40" t="n">
-        <v>3746.594833634157</v>
+        <v>924.2611010045191</v>
       </c>
       <c r="Y40" t="n">
-        <v>3594.622345530668</v>
+        <v>772.28861290103</v>
       </c>
     </row>
     <row r="41">
@@ -7394,64 +7394,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L42" t="n">
-        <v>537.2074630401935</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M42" t="n">
-        <v>857.5427825698953</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3481.79397174047</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>3381.677879852604</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>3300.381331480309</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>3221.288328937957</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>3143.218472480088</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>3043.863241839949</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>2962.265324427934</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>2999.384087782176</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>3217.020063255132</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>3532.182679494606</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>4126.361372489053</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>3905.764293492133</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>3746.594833634157</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>3594.622345530669</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7643,13 +7643,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>836.471721275012</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>1426.94561082251</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.466266460128</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.930027762787</v>
+        <v>2246.748416482984</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2429.391894096335</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>472.3295313345118</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>325.4395838366014</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>325.4395838366014</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7831,25 +7831,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>874.9271131227918</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>620.2426249169049</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W46" t="n">
-        <v>620.2426249169049</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X46" t="n">
-        <v>620.2426249169049</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y46" t="n">
-        <v>620.2426249169049</v>
+        <v>195.0373687508851</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270202</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,19 +8778,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>300.2335950390128</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4063822533879</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>177.0385260003494</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>37.61587891187469</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>84.73075562496649</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>150.0175886425068</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>51.56707538897825</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>130.4503586621829</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>192.3581855871785</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>143.507741682267</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>85.66716743252479</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>84.29165475660781</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>162.6307347075255</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>21.09940539009639</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>64.30500338171993</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>131.0637577938893</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>78.51658824933818</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>74.4312255199946</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.98990566424402</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>33.39280637925577</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.666488533</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885329</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.666488533</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.666488533</v>
       </c>
       <c r="K2" t="n">
         <v>800515.725617677</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="M2" t="n">
+        <v>800515.7256176771</v>
+      </c>
+      <c r="N2" t="n">
+        <v>800515.7256176771</v>
+      </c>
+      <c r="O2" t="n">
         <v>800515.725617677</v>
       </c>
-      <c r="N2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176769</v>
-      </c>
       <c r="P2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885328</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,16 +26381,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.1391806192</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759185</v>
+        <v>787.793690575921</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759311</v>
+        <v>787.7936905759235</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905759235</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905760752</v>
       </c>
       <c r="J4" t="n">
+        <v>787.793690576006</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189638</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189642</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23206.58093189642</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002536</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089682</v>
+        <v>-11370.3708408965</v>
       </c>
       <c r="C6" t="n">
         <v>578597.5083736478</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.5083736478</v>
+        <v>578597.5083736485</v>
       </c>
       <c r="E6" t="n">
         <v>144571.5103723439</v>
       </c>
       <c r="F6" t="n">
-        <v>669731.5468492401</v>
+        <v>669731.5468492403</v>
       </c>
       <c r="G6" t="n">
         <v>669731.5468492405</v>
       </c>
       <c r="H6" t="n">
-        <v>669731.54684924</v>
+        <v>669731.5468492405</v>
       </c>
       <c r="I6" t="n">
-        <v>669731.54684924</v>
+        <v>669731.5468492399</v>
       </c>
       <c r="J6" t="n">
-        <v>493308.3276566471</v>
+        <v>493308.3276566477</v>
       </c>
       <c r="K6" t="n">
         <v>625088.5267620427</v>
       </c>
       <c r="L6" t="n">
-        <v>679594.038865755</v>
+        <v>679594.0388657551</v>
       </c>
       <c r="M6" t="n">
-        <v>544793.023631918</v>
+        <v>544793.0236319181</v>
       </c>
       <c r="N6" t="n">
+        <v>679594.0388657554</v>
+      </c>
+      <c r="O6" t="n">
         <v>679594.0388657552</v>
       </c>
-      <c r="O6" t="n">
-        <v>679594.0388657551</v>
-      </c>
       <c r="P6" t="n">
-        <v>669731.5468492401</v>
+        <v>669731.5468492403</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054540999</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.2872775002871</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>320.6518886282831</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>94.88447893368877</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>264.1714611465364</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>240.0716518562657</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X7" t="n">
-        <v>214.853734077577</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.10026567223711</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>123.5101217588477</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>23.27127170785415</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>137.1583658160732</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964057</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -31130,7 +31130,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633787</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473546</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141101</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188906</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>167.900586832999</v>
+        <v>167.9005868330008</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078603</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644435</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302231</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175834</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678002</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>112.0665823708073</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>202.2327244124283</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>288.1533596602011</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32321,16 +32321,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>278.4799167015764</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710955</v>
@@ -32464,46 +32464,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>416.2240155371399</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>226.806512946904</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32625,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,46 +32701,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32792,31 +32792,31 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>104.8660281469031</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,43 +32862,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N25" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,46 +32938,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33017,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33099,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,43 +33254,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>49.68672516641908</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>154.5125494860965</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33418,40 +33418,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,43 +33491,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>163.400029243553</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33591,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33603,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,43 +33728,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>207.5601223705499</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,19 +33965,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>142.5346749772348</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -33986,13 +33986,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>115.551208563734</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961213</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,34 +34202,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>288.3640862139225</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>231.4898261851226</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,22 +34451,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>272.8672424422184</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>126.0475280469434</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713855</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>515.9012490932211</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713946</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>111.3199910445494</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>272.3282380622559</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>520.4393251837861</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>633.4281684370256</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>142.3165612082945</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178375</v>
+        <v>529.7459915338615</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209231</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>739.7950453651215</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0725877791891</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>39.19708702599041</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>289.35438937251</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556562</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>79.52605786678134</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>417.9253290229792</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>300.9527999987042</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>224.6080631359241</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>290.0238272817726</v>
       </c>
       <c r="L33" t="n">
-        <v>399.2752935985311</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,7 +37233,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>439.8460878941349</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>258.6604903205028</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>269.1584730154544</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>366.8172833960191</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520607</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502433</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>149.8097064340484</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>555.0608560131042</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
         <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>596.4382722701999</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>196.143041696771</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38181,7 +38181,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4314690.359050617</v>
+        <v>4319629.621899651</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>509795.6182774125</v>
+        <v>525896.3462916594</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>273.0874882044323</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,7 +676,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60.46179076613117</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>328.6188756177278</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>13.80587249615579</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>102.093499836348</v>
+        <v>97.6352909288865</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784679</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>76.33749994735953</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527404</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>127.3468162802032</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.85506030235033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274145</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>82.93992391707198</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>33.10471431337065</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505273781</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>57.64843562452447</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>79.95624349119792</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>108.4369622792445</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>61.4722606779437</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>29.18937547121062</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113151</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>102.5553305324169</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151922</v>
+        <v>11.77373557727553</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>254.9438793677341</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.93037007226</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>247.4615866563451</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>147.1163355383943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>138.9281674874319</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>204.4368981413432</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>115.0154977457495</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1463.674302457628</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1463.674302457628</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,10 +4430,10 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>796.867144809697</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>385.8812400200895</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.566937845283</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.566937845283</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.566937845283</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>532.9757468194221</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>164.0132298790103</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D8" t="n">
-        <v>164.0132298790103</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E8" t="n">
-        <v>164.0132298790103</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F8" t="n">
-        <v>157.0677291298069</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4846,10 +4846,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.5755868835438</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,13 +5117,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
         <v>452.5377573864724</v>
@@ -5132,13 +5132,13 @@
         <v>1220.905903778934</v>
       </c>
       <c r="N12" t="n">
-        <v>2025.317482043085</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5257,40 +5257,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5302,10 +5302,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,13 +5354,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
         <v>452.5377573864724</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>993.2877828087275</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C16" t="n">
-        <v>824.3515998808206</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.921157035281</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.921157035281</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.921157035281</v>
+        <v>826.4699958077928</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.921157035281</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1174.936247638967</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,22 +5506,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,19 +5533,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5554,13 +5554,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>436.8967109626377</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527475</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>646.9375622247742</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>416.5712828402494</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>898.792518248838</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>865.3534128817969</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>865.3534128817969</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>416.5712828402494</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="24">
@@ -6056,31 +6056,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171747</v>
+        <v>711.1141612171743</v>
       </c>
       <c r="M24" t="n">
         <v>1479.482307609636</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.893885873787</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.384017443268</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C25" t="n">
-        <v>155.4478345153611</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>994.4469629486189</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>994.4469629486189</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150552</v>
+        <v>994.4469629486189</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170379</v>
+        <v>766.4574120506015</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735078</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,13 +6308,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6387,49 +6387,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1078.38887190473</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>1078.38887190473</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>823.7043836988429</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150552</v>
+        <v>823.7043836988429</v>
       </c>
       <c r="X28" t="n">
-        <v>892.7214197110717</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6551,10 +6551,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578666</v>
+        <v>334.2881267578674</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022017</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
         <v>1808.163466324677</v>
@@ -6624,34 +6624,34 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011506</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155863</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805443</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="33">
@@ -6767,31 +6767,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578666</v>
+        <v>334.2881267578674</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022017</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
         <v>1808.163466324677</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1084.329914073242</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>795.2012752868006</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>540.5167870809138</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>540.5167870809138</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>540.5167870809138</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="35">
@@ -6916,52 +6916,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L36" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1263.238193148139</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1263.238193148139</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>973.8210231111786</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L39" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1122.004430061687</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1926.416008325838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2595.879769628498</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>933.2366688293924</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>675.7175987609742</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="42">
@@ -7478,31 +7478,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605665</v>
+        <v>323.6581146605673</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924717</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557903</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.499100520942</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.896741391251</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,19 +7642,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515096</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,28 +7715,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L45" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>882.7763375151577</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C46" t="n">
-        <v>713.8401545872508</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D46" t="n">
-        <v>563.7235151749151</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557903</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557903</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="X46" t="n">
-        <v>1270.926719659886</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y46" t="n">
-        <v>1064.424802345397</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
   </sheetData>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,10 +9257,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417969</v>
+        <v>381.5997261417976</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417969</v>
+        <v>381.5997261417977</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298487</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298487</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>161.9478778664923</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849281</v>
+        <v>202.8611258896134</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599069</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>103.4944802345778</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>159.1761820563878</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.7295930497445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>135.6447294350228</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>219.0329290104573</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>90.96703739368789</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>206.2811089073794</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>113.1105987791448</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>164.2373947110935</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>118.9922305259723</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338511</v>
+        <v>274.4636168213018</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>31.57911896885693</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>38.77576574223224</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.46831781370051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>113.2094758363961</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.1477552107516</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176764</v>
-      </c>
       <c r="E2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="F2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="G2" t="n">
+        <v>762506.6664885329</v>
+      </c>
+      <c r="H2" t="n">
+        <v>762506.666488533</v>
+      </c>
+      <c r="I2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="J2" t="n">
+        <v>762506.666488533</v>
+      </c>
+      <c r="K2" t="n">
+        <v>762506.6664885329</v>
+      </c>
+      <c r="L2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="M2" t="n">
+        <v>762506.666488533</v>
+      </c>
+      <c r="N2" t="n">
         <v>762506.6664885326</v>
       </c>
-      <c r="F2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="G2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="H2" t="n">
-        <v>762506.6664885327</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762506.6664885327</v>
-      </c>
-      <c r="K2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="L2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="M2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="N2" t="n">
-        <v>762506.6664885327</v>
-      </c>
       <c r="O2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885329</v>
+        <v>762506.6664885328</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>1.53759802466479e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759726</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758731</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905759273</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905759314</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905760048</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758313</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758012</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="L4" t="n">
+        <v>787.793690575988</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.793690575951</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.3708408969</v>
+        <v>-11370.37084089679</v>
       </c>
       <c r="C6" t="n">
         <v>578597.5083736478</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.5083736479</v>
+        <v>578597.5083736478</v>
       </c>
       <c r="E6" t="n">
-        <v>143596.9191126222</v>
+        <v>144474.0512463718</v>
       </c>
       <c r="F6" t="n">
-        <v>668756.9555895183</v>
+        <v>669634.0877232678</v>
       </c>
       <c r="G6" t="n">
-        <v>668756.9555895183</v>
+        <v>669634.0877232682</v>
       </c>
       <c r="H6" t="n">
-        <v>668756.9555895185</v>
+        <v>669634.0877232683</v>
       </c>
       <c r="I6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="J6" t="n">
-        <v>492333.7363969256</v>
+        <v>493210.8685306754</v>
       </c>
       <c r="K6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232683</v>
       </c>
       <c r="L6" t="n">
-        <v>668756.9555895183</v>
+        <v>669634.0877232682</v>
       </c>
       <c r="M6" t="n">
-        <v>533955.9403556812</v>
+        <v>534833.0724894311</v>
       </c>
       <c r="N6" t="n">
-        <v>668756.9555895185</v>
+        <v>669634.087723268</v>
       </c>
       <c r="O6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="P6" t="n">
-        <v>668756.9555895188</v>
+        <v>669634.0877232682</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26810,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.24582280240582e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.24582280240582e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.6463534590483</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>263.460981998226</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>168.5393373498798</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>85.16529440306721</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>335.4350962212573</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>243.205144897451</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>311.690670184447</v>
+        <v>316.1488790919085</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.13605166142793e-12</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.126322092888502e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.614797267597169e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392672</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31603,13 +31603,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071305</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31618,7 +31618,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>138.025402555805</v>
       </c>
       <c r="O12" t="n">
-        <v>168.5445774098388</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32086,13 +32086,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>98.44906376001086</v>
+        <v>98.44906376001131</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304432</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>216.4869287318328</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>186.3865186257881</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>315.8821359054331</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508801</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32794,16 +32794,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>131.4209907335608</v>
       </c>
       <c r="O24" t="n">
-        <v>91.84465193776617</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,43 +32864,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508807</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565502</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33274,25 +33274,25 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33511,25 +33511,25 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508807</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,13 +33763,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>380.6284621420193</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -33997,16 +33997,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34222,25 +34222,25 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508807</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34471,13 +34471,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,43 +34523,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>486.0260648160252</v>
       </c>
       <c r="O12" t="n">
-        <v>419.8106522421239</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7151385922959</v>
+        <v>349.7151385922964</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109064</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>343.1107267700525</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O18" t="n">
-        <v>437.6525934580732</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>548.1681014290181</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111003</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>479.421652993781</v>
       </c>
       <c r="O24" t="n">
-        <v>343.1107267700513</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111003</v>
+        <v>740.606998911101</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197786</v>
+        <v>239.4656922197794</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197785</v>
+        <v>239.4656922197794</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594832</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111003</v>
+        <v>740.606998911101</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594832</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>704.1994919700008</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>27.97347045216202</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629098</v>
+        <v>60.72709196759513</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111003</v>
+        <v>740.606998911101</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
